--- a/English-Armenian Technical Dictionary.xlsx
+++ b/English-Armenian Technical Dictionary.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
